--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_Lapdat.xlsx
@@ -9,30 +9,36 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102LE-4G" sheetId="41" r:id="rId1"/>
-    <sheet name="TG102LE" sheetId="40" r:id="rId2"/>
-    <sheet name="TG102V" sheetId="39" r:id="rId3"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
+    <sheet name="TG102SE" sheetId="43" r:id="rId1"/>
+    <sheet name="TG102" sheetId="42" r:id="rId2"/>
+    <sheet name="TG102LE-4G" sheetId="41" r:id="rId3"/>
+    <sheet name="TG102LE" sheetId="40" r:id="rId4"/>
+    <sheet name="TG102V" sheetId="39" r:id="rId5"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="104">
   <si>
     <t>STT</t>
   </si>
@@ -293,6 +299,63 @@
   <si>
     <t>Thiết bị không nhận sim</t>
   </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Nâng cấp fw module SIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>TG102</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>012896004920051</t>
+  </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GPS</t>
+  </si>
+  <si>
+    <t>SE.4.00.---05.200416</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14242</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Không sửa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Phiên bản cũ</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
 </sst>
 </file>
 
@@ -497,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -697,28 +760,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,7 +784,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,6 +1120,3750 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="56" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="73"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="69"/>
+      <c r="K5" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="38">
+        <v>862631039276745</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="68"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="38">
+        <v>861694031749318</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="68"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="38">
+        <v>866104021756500</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="68"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="68"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="68"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="68"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="68"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="68"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="68"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="68"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="68"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="68"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>2</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>1</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>3</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="58"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>2</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="58"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="58"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="58"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="58"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="58"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="58"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="58"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="58"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="59"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="58"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="60"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="60"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="60"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="60"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="56" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="73"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="69"/>
+      <c r="K5" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="38">
+        <v>863306024477363</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="68"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="38">
+        <v>862118021546822</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="68"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="38">
+        <v>866762024315200</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="68"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="38">
+        <v>862118022277443</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="68"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="68"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="38">
+        <v>863306020490196</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="68"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="38">
+        <v>866762029427422</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="68"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="38">
+        <v>863306024480276</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="68"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="38">
+        <v>867330024402680</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="68"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="38">
+        <v>866762026550558</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="68"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="38">
+        <v>863306024404219</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="68"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="38">
+        <v>866762025783927</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="68"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="38">
+        <v>863306024483866</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="58"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="58"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="58"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="58"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="58"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="58"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="58"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="58"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="58"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="59"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="58"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="60"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="60"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="60"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="60"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
@@ -1081,43 +4897,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1162,58 +4978,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1238,23 +5054,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,7 +5110,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1325,7 +5141,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1354,7 +5170,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1383,7 +5199,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1412,7 +5228,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1441,7 +5257,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1470,7 +5286,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1501,7 +5317,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1530,7 +5346,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1559,7 +5375,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1588,7 +5404,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2818,6 +6634,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2829,25 +6652,18 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2879,43 +6695,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2960,58 +6776,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3036,23 +6852,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3104,7 +6920,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3116,26 +6932,54 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="61">
+        <v>44690</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44690</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183034552260</v>
+      </c>
       <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="48"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="I7" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3164,7 +7008,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3193,7 +7037,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3222,7 +7066,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3251,7 +7095,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3280,7 +7124,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3311,7 +7155,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3340,7 +7184,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3369,7 +7213,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3398,7 +7242,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3516,7 +7360,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3985,7 +7829,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4049,7 +7893,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4628,6 +8472,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4639,25 +8490,18 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4689,43 +8533,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4770,58 +8614,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -4846,23 +8690,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4918,7 +8762,7 @@
         <v>81</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4979,7 +8823,7 @@
         <v>81</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5038,7 +8882,7 @@
         <v>81</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5097,7 +8941,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5107,26 +8951,56 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="61">
+        <v>44690</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44690</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868926033922433</v>
+      </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H10" s="48"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="I10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
+      <c r="O10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5136,26 +9010,56 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="61">
+        <v>44690</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44690</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="38">
+        <v>869627031838931</v>
+      </c>
       <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H11" s="48"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="I11" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
+      <c r="O11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5165,26 +9069,54 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="61">
+        <v>44690</v>
+      </c>
+      <c r="C12" s="61">
+        <v>44690</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="38">
+        <v>869627031844913</v>
+      </c>
       <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H12" s="48"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
+      <c r="O12" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5215,7 +9147,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5244,7 +9176,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5273,7 +9205,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5302,7 +9234,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5484,7 +9416,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5761,7 +9693,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -5889,7 +9821,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -5953,7 +9885,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6532,6 +10464,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6543,20 +10482,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -6593,43 +10525,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6674,58 +10606,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6750,23 +10682,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6792,7 +10724,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6823,7 +10755,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6852,7 +10784,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6881,7 +10813,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6910,7 +10842,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6939,7 +10871,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6968,7 +10900,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6999,7 +10931,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7028,7 +10960,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7057,7 +10989,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7086,7 +11018,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8317,6 +12249,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8328,13 +12267,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_Lapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="43" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
   </si>
 </sst>
 </file>
@@ -766,6 +769,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -784,34 +814,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,43 +1156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1234,26 +1237,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
@@ -1263,7 +1266,7 @@
       <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="75" t="s">
@@ -1272,20 +1275,20 @@
       <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1310,7 +1313,7 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
@@ -1320,13 +1323,13 @@
       <c r="M5" s="76"/>
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="76"/>
       <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1376,7 +1379,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1431,7 +1434,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1480,7 +1483,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1509,7 +1512,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1538,7 +1541,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1567,7 +1570,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1596,7 +1599,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1627,7 +1630,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1656,7 +1659,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1685,7 +1688,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1714,7 +1717,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2944,13 +2947,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2962,6 +2958,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2972,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3005,43 +3008,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3086,26 +3089,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
@@ -3115,7 +3118,7 @@
       <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="75" t="s">
@@ -3124,20 +3127,20 @@
       <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3162,7 +3165,7 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
@@ -3172,13 +3175,13 @@
       <c r="M5" s="76"/>
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="76"/>
       <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,7 +3215,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3251,7 +3254,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3288,7 +3291,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3325,7 +3328,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3342,7 +3345,7 @@
       <c r="D10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="69" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="48"/>
@@ -3362,7 +3365,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3399,7 +3402,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3436,7 +3439,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3475,7 +3478,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3512,7 +3515,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3549,7 +3552,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3586,7 +3589,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4836,13 +4839,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4854,6 +4850,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4897,43 +4900,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4978,26 +4981,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
@@ -5007,7 +5010,7 @@
       <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="75" t="s">
@@ -5016,20 +5019,20 @@
       <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -5054,7 +5057,7 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
@@ -5064,13 +5067,13 @@
       <c r="M5" s="76"/>
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="76"/>
       <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5110,7 +5113,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5141,7 +5144,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5170,7 +5173,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5199,7 +5202,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5228,7 +5231,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5257,7 +5260,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5286,7 +5289,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5317,7 +5320,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5346,7 +5349,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5375,7 +5378,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5404,7 +5407,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6634,13 +6637,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6652,6 +6648,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6662,8 +6665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6695,43 +6698,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -6776,26 +6779,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
@@ -6805,7 +6808,7 @@
       <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="75" t="s">
@@ -6814,20 +6817,20 @@
       <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -6852,7 +6855,7 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
@@ -6862,13 +6865,13 @@
       <c r="M5" s="76"/>
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="76"/>
       <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6920,7 +6923,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6979,7 +6982,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6989,26 +6992,50 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="61">
+        <v>44700</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44700</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868183034552260</v>
+      </c>
       <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="H8" s="48"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="53" t="s">
+        <v>66</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="39"/>
+      <c r="L8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7018,26 +7045,52 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="61">
+        <v>44700</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44700</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183034787098</v>
+      </c>
       <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="H9" s="48"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7066,7 +7119,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7095,7 +7148,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7124,7 +7177,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7155,7 +7208,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7184,7 +7237,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7213,7 +7266,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7242,7 +7295,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7360,7 +7413,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7797,7 +7850,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -7861,7 +7914,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -7893,7 +7946,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8472,13 +8525,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8490,6 +8536,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8533,43 +8586,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -8614,26 +8667,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
@@ -8643,7 +8696,7 @@
       <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="75" t="s">
@@ -8652,20 +8705,20 @@
       <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -8690,7 +8743,7 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
@@ -8700,13 +8753,13 @@
       <c r="M5" s="76"/>
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="76"/>
       <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8762,7 +8815,7 @@
         <v>81</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8823,7 +8876,7 @@
         <v>81</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8882,7 +8935,7 @@
         <v>81</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8941,7 +8994,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9000,7 +9053,7 @@
         <v>81</v>
       </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9059,7 +9112,7 @@
         <v>81</v>
       </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9116,7 +9169,7 @@
         <v>81</v>
       </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9147,7 +9200,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9176,7 +9229,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9205,7 +9258,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9234,7 +9287,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10464,13 +10517,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10482,6 +10528,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10525,43 +10578,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10606,58 +10659,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10682,7 +10735,7 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
@@ -10691,14 +10744,14 @@
       </c>
       <c r="M5" s="76"/>
       <c r="N5" s="76"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10724,7 +10777,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10755,7 +10808,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10784,7 +10837,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10813,7 +10866,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10842,7 +10895,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10871,7 +10924,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10900,7 +10953,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10931,7 +10984,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10960,7 +11013,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10989,7 +11042,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11018,7 +11071,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12249,13 +12302,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12267,6 +12313,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_Lapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="43" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa module GSM</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170702</t>
   </si>
 </sst>
 </file>
@@ -772,30 +781,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -813,6 +798,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1156,43 +1165,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1237,58 +1246,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1313,23 +1322,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1379,7 +1388,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1434,7 +1443,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1483,7 +1492,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1512,7 +1521,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1541,7 +1550,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1570,7 +1579,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1599,7 +1608,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1630,7 +1639,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1659,7 +1668,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1688,7 +1697,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1726,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2947,6 +2956,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2958,13 +2974,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3008,43 +3017,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3089,58 +3098,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3165,23 +3174,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3215,7 +3224,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3254,7 +3263,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3291,7 +3300,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3328,7 +3337,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3365,7 +3374,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3402,7 +3411,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3439,7 +3448,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3478,7 +3487,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3515,7 +3524,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3552,7 +3561,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3589,7 +3598,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4839,6 +4848,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4850,13 +4866,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4900,43 +4909,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4981,58 +4990,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -5057,23 +5066,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5113,7 +5122,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5144,7 +5153,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5173,7 +5182,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5202,7 +5211,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5231,7 +5240,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5260,7 +5269,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5289,7 +5298,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5320,7 +5329,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5349,7 +5358,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5378,7 +5387,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5407,7 +5416,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6637,6 +6646,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6648,13 +6664,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6665,8 +6674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6698,43 +6707,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -6779,58 +6788,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -6855,23 +6864,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6923,7 +6932,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6982,7 +6991,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7035,7 +7044,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7090,7 +7099,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7119,7 +7128,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7148,7 +7157,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7177,7 +7186,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7208,7 +7217,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7237,7 +7246,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7266,7 +7275,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7295,7 +7304,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8525,6 +8534,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8536,13 +8552,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8553,8 +8562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8586,43 +8595,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -8667,58 +8676,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -8743,23 +8752,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8815,7 +8824,7 @@
         <v>81</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8876,7 +8885,7 @@
         <v>81</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8935,7 +8944,7 @@
         <v>81</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8994,7 +9003,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9053,7 +9062,7 @@
         <v>81</v>
       </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9112,7 +9121,7 @@
         <v>81</v>
       </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9169,7 +9178,7 @@
         <v>81</v>
       </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9181,26 +9190,56 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="B13" s="61">
+        <v>44702</v>
+      </c>
+      <c r="C13" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="38">
+        <v>864811036968530</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="H13" s="48"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="I13" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
+      <c r="O13" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T13" s="63"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9210,26 +9249,48 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="B14" s="61">
+        <v>44702</v>
+      </c>
+      <c r="C14" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="38">
+        <v>868926033918597</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="53"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="M14" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9239,26 +9300,56 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="B15" s="61">
+        <v>44702</v>
+      </c>
+      <c r="C15" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="38">
+        <v>863586032914651</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="H15" s="48"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="I15" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="3"/>
+      <c r="O15" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9268,26 +9359,56 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="B16" s="61">
+        <v>44702</v>
+      </c>
+      <c r="C16" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="38">
+        <v>863586032929030</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="H16" s="37"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="I16" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="3"/>
+      <c r="O16" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9469,7 +9590,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -9746,7 +9867,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9874,7 +9995,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9938,7 +10059,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10056,7 +10177,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -10291,7 +10412,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -10517,6 +10638,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10528,13 +10656,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10578,43 +10699,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10659,58 +10780,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10735,23 +10856,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="77"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10777,7 +10898,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10808,7 +10929,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10837,7 +10958,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10866,7 +10987,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10895,7 +11016,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10924,7 +11045,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10953,7 +11074,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10984,7 +11105,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11013,7 +11134,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11042,7 +11163,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11071,7 +11192,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12302,6 +12423,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12313,13 +12441,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_Lapdat.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>VI.1.00.---01.170702</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Restore thiết bị, nâng cấp khay sim+FW</t>
+  </si>
+  <si>
+    <t>RTB, NCFW</t>
   </si>
 </sst>
 </file>
@@ -781,6 +790,30 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,30 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,43 +1174,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1246,58 +1255,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1322,23 +1331,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1388,7 +1397,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1443,7 +1452,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1492,7 +1501,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1521,7 +1530,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1550,7 +1559,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1588,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1608,7 +1617,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1639,7 +1648,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1668,7 +1677,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1697,7 +1706,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1726,7 +1735,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2956,13 +2965,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2974,6 +2976,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3017,43 +3026,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3098,58 +3107,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3174,23 +3183,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3233,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3263,7 +3272,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3300,7 +3309,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3337,7 +3346,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3374,7 +3383,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3411,7 +3420,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3448,7 +3457,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3487,7 +3496,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3524,7 +3533,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3561,7 +3570,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3598,7 +3607,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4848,13 +4857,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4866,6 +4868,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4909,43 +4918,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4990,58 +4999,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -5066,23 +5075,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5122,7 +5131,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5153,7 +5162,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5182,7 +5191,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5211,7 +5220,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5240,7 +5249,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5269,7 +5278,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5298,7 +5307,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5329,7 +5338,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5358,7 +5367,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5387,7 +5396,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5416,7 +5425,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6646,13 +6655,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6664,6 +6666,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6707,43 +6716,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -6788,58 +6797,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -6864,23 +6873,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6932,7 +6941,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6991,7 +7000,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7044,7 +7053,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7099,7 +7108,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7128,7 +7137,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7157,7 +7166,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7186,7 +7195,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7217,7 +7226,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7246,7 +7255,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7275,7 +7284,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7304,7 +7313,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8534,13 +8543,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8552,6 +8554,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8562,8 +8571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8595,43 +8604,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -8676,58 +8685,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -8752,23 +8761,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8824,7 +8833,7 @@
         <v>81</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8885,7 +8894,7 @@
         <v>81</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8944,7 +8953,7 @@
         <v>81</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -9003,7 +9012,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9062,7 +9071,7 @@
         <v>81</v>
       </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9121,7 +9130,7 @@
         <v>81</v>
       </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9178,7 +9187,7 @@
         <v>81</v>
       </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9239,7 +9248,7 @@
         <v>81</v>
       </c>
       <c r="T13" s="63"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9290,7 +9299,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9349,7 +9358,7 @@
         <v>81</v>
       </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9371,7 +9380,6 @@
       <c r="E16" s="38">
         <v>863586032929030</v>
       </c>
-      <c r="F16" s="48"/>
       <c r="G16" s="37" t="s">
         <v>91</v>
       </c>
@@ -9408,7 +9416,7 @@
         <v>81</v>
       </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9418,23 +9426,53 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="61">
+        <v>44704</v>
+      </c>
+      <c r="C17" s="61">
+        <v>44704</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="38">
+        <v>868926033949238</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="39"/>
+      <c r="I17" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>109</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="3"/>
+      <c r="O17" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T17" s="13"/>
       <c r="U17" s="63"/>
       <c r="V17" s="14"/>
@@ -9590,7 +9628,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -9963,7 +10001,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -9995,7 +10033,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -10059,7 +10097,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10638,13 +10676,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10656,6 +10687,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10699,43 +10737,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10780,58 +10818,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10856,23 +10894,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10898,7 +10936,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10929,7 +10967,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10958,7 +10996,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10987,7 +11025,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11016,7 +11054,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11045,7 +11083,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11074,7 +11112,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11105,7 +11143,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11134,7 +11172,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11163,7 +11201,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11192,7 +11230,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12423,13 +12461,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12441,6 +12472,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_Lapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="43" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -790,30 +790,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -831,6 +807,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1174,43 +1174,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1255,58 +1255,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1331,23 +1331,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1648,7 +1648,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2965,6 +2965,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2976,13 +2983,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2993,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3026,43 +3026,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3107,58 +3107,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3183,23 +3183,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,7 +3209,9 @@
       <c r="B6" s="61">
         <v>44691</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44691</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>90</v>
       </c>
@@ -3225,15 +3227,25 @@
       <c r="J6" s="1"/>
       <c r="K6" s="64"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3248,7 +3260,9 @@
       <c r="B7" s="61">
         <v>44691</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44691</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>90</v>
       </c>
@@ -3264,15 +3278,25 @@
       <c r="J7" s="1"/>
       <c r="K7" s="64"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3285,7 +3309,9 @@
       <c r="B8" s="61">
         <v>44691</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44691</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>90</v>
       </c>
@@ -3301,15 +3327,25 @@
       <c r="J8" s="1"/>
       <c r="K8" s="64"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3322,7 +3358,9 @@
       <c r="B9" s="61">
         <v>44691</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44691</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>90</v>
       </c>
@@ -3338,15 +3376,25 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3359,7 +3407,9 @@
       <c r="B10" s="61">
         <v>44691</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44691</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>90</v>
       </c>
@@ -3375,15 +3425,25 @@
       <c r="J10" s="1"/>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3396,7 +3456,9 @@
       <c r="B11" s="61">
         <v>44691</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="61">
+        <v>44691</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>90</v>
       </c>
@@ -3412,15 +3474,25 @@
       <c r="J11" s="1"/>
       <c r="K11" s="64"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3433,7 +3505,9 @@
       <c r="B12" s="61">
         <v>44691</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="61">
+        <v>44691</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>90</v>
       </c>
@@ -3449,15 +3523,25 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3472,7 +3556,9 @@
       <c r="B13" s="61">
         <v>44691</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <v>44691</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>90</v>
       </c>
@@ -3488,15 +3574,25 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
+      <c r="O13" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3509,7 +3605,9 @@
       <c r="B14" s="61">
         <v>44691</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>44691</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>90</v>
       </c>
@@ -3525,15 +3623,25 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="M14" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3546,7 +3654,9 @@
       <c r="B15" s="61">
         <v>44691</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="61">
+        <v>44691</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>90</v>
       </c>
@@ -3562,15 +3672,25 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="M15" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
+      <c r="O15" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3583,7 +3703,9 @@
       <c r="B16" s="61">
         <v>44691</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="61">
+        <v>44691</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>90</v>
       </c>
@@ -3599,15 +3721,25 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="M16" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="37"/>
+      <c r="O16" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3620,7 +3752,9 @@
       <c r="B17" s="61">
         <v>44691</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="61">
+        <v>44691</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>90</v>
       </c>
@@ -3635,12 +3769,22 @@
       <c r="I17" s="53"/>
       <c r="J17" s="39"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="39"/>
+      <c r="M17" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
+      <c r="O17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="68"/>
@@ -3654,7 +3798,9 @@
       <c r="B18" s="61">
         <v>44691</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="61">
+        <v>44691</v>
+      </c>
       <c r="D18" s="37" t="s">
         <v>90</v>
       </c>
@@ -3674,12 +3820,22 @@
         <v>103</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
+      <c r="M18" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
+      <c r="O18" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -3777,7 +3933,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4086,7 +4242,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4278,7 +4434,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4396,7 +4552,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -4857,6 +5013,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4868,13 +5031,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4885,8 +5041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="B6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4918,43 +5074,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4999,58 +5155,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -5075,23 +5231,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5123,15 +5279,25 @@
         <v>73</v>
       </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5162,7 +5328,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5191,7 +5357,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5220,7 +5386,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5249,7 +5415,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5278,7 +5444,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5307,7 +5473,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5338,7 +5504,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5367,7 +5533,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5396,7 +5562,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5425,7 +5591,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5543,7 +5709,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6012,7 +6178,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6076,7 +6242,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6655,6 +6821,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6666,13 +6839,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6683,8 +6849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6716,43 +6882,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -6797,58 +6963,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -6873,23 +7039,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6941,7 +7107,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7000,7 +7166,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7053,7 +7219,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7108,7 +7274,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7137,7 +7303,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7166,7 +7332,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7195,7 +7361,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7226,7 +7392,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7255,7 +7421,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7284,7 +7450,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7313,7 +7479,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8543,6 +8709,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8554,13 +8727,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8571,8 +8737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8604,43 +8770,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -8685,58 +8851,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -8761,23 +8927,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8833,7 +8999,7 @@
         <v>81</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8894,7 +9060,7 @@
         <v>81</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8953,7 +9119,7 @@
         <v>81</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -9012,7 +9178,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9071,7 +9237,7 @@
         <v>81</v>
       </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9130,7 +9296,7 @@
         <v>81</v>
       </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9187,7 +9353,7 @@
         <v>81</v>
       </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9248,7 +9414,7 @@
         <v>81</v>
       </c>
       <c r="T13" s="63"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9299,7 +9465,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9358,7 +9524,7 @@
         <v>81</v>
       </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9416,7 +9582,7 @@
         <v>81</v>
       </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10676,6 +10842,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10687,13 +10860,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10737,43 +10903,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10818,58 +10984,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10894,23 +11060,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="77"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10936,7 +11102,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10967,7 +11133,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10996,7 +11162,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11025,7 +11191,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11054,7 +11220,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11083,7 +11249,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11112,7 +11278,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11143,7 +11309,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11172,7 +11338,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11201,7 +11367,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11230,7 +11396,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12461,6 +12627,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12472,13 +12645,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
